--- a/Materials and Mechanics/Material tests/Parameters.xlsx
+++ b/Materials and Mechanics/Material tests/Parameters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t xml:space="preserve">Group</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Week Tap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 week salt</t>
   </si>
 </sst>
 </file>
@@ -170,12 +176,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -196,14 +206,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.36"/>
@@ -603,6 +614,267 @@
         <v>1</v>
       </c>
       <c r="K13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
